--- a/biology/Botanique/Pouteria_sapota/Pouteria_sapota.xlsx
+++ b/biology/Botanique/Pouteria_sapota/Pouteria_sapota.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Sapotier, Pouteria sapota, est une espèce de plantes à fleurs de la famille des Sapotaceae. C'est un arbre pouvant atteindre une hauteur de 15 à 45 mètres, poussant sous climat tropical. On en trouve au Mexique, à La Réunion, aux Antilles, en Inde du sud.
 Il donne un fruit connu sous le nom de sapote, grosse sapote, sapote à crème ou encore sapote mamey, mesurant 10 à 25 cm de longueur, 8 à 12 cm de largeur, dont la pulpe est de couleur rouge-orangée.
@@ -513,7 +525,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Achras mammosa Bonpl. ex Miq. nom. illeg.
@@ -561,7 +575,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Arbre pouvant atteindre une hauteur de 45 m.
 Feuillage persistant
@@ -596,7 +612,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Arbre originaire d'Amérique centrale et de Cuba, il est cultivé en Amérique et dans les Antilles.
 </t>
@@ -627,7 +645,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La Sapotier est planté pour ses fruits et à des fins ornementales. La pratique de la greffe permet l'obtention de fruits sélectionnés plus rapidement que par germination.
 </t>
